--- a/output/failure_report.xlsx
+++ b/output/failure_report.xlsx
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
